--- a/Datos/Database by set/Set with text box/Xlsx sets/URLConvention Promos (PURL).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/URLConvention Promos (PURL).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,329 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aeronaut Tinkerer</t>
+          <t>('Aeronaut Tinkerer', ['{2}{U}', 'Creature — Human Artificer', 'Aeronaut Tinkerer has flying as long as you control an artifact. (It can’t be blocked except by creatures with flying or reach.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{U}</t>
+          <t>('Bloodthrone Vampire', ['{1}{B}', 'Creature — Vampire', 'Sacrifice a creature: Bloodthrone Vampire gets +2/+2 until end of turn.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Human Artificer</t>
+          <t>("Chandra's Fury", ['{4}{R}', 'Instant', 'Chandra’s Fury deals 4 damage to target player or planeswalker and 1 damage to each creature that player or that planeswalker’s controller controls.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aeronaut Tinkerer has flying as long as you control an artifact. (It can’t be blocked except by creatures with flying or reach.)</t>
+          <t>('Kor Skyfisher', ['{1}{W}', 'Creature — Kor Soldier', 'Flying', 'When Kor Skyfisher enters the battlefield, return a permanent you control to its owner’s hand.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/3</t>
+          <t>('Merfolk Mesmerist', ['{1}{U}', 'Creature — Merfolk Wizard', '{U}, {T}: Target player mills two cards.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bloodthrone Vampire</t>
+          <t>('Relentless Rats', ['{1}{B}{B}', 'Creature — Rat', 'Relentless Rats gets +1/+1 for each other creature on the battlefield named Relentless Rats.', 'A deck can have any number of cards named Relentless Rats.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{B}</t>
+          <t>('Shepherd of the Lost', ['{4}{W}', 'Creature — Angel', 'Flying, first strike, vigilance', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Creature — Vampire</t>
+          <t>('Stealer of Secrets', ['{2}{U}', 'Creature — Human Rogue', 'Whenever Stealer of Secrets deals combat damage to a player, draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sacrifice a creature: Bloodthrone Vampire gets +2/+2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Chandra's Fury</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{4}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Chandra’s Fury deals 4 damage to target player or planeswalker and 1 damage to each creature that player or that planeswalker’s controller controls.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Kor Skyfisher</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Creature — Kor Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>When Kor Skyfisher enters the battlefield, return a permanent you control to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Merfolk Mesmerist</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Creature — Merfolk Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{U}, {T}: Target player mills two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Relentless Rats</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Creature — Rat</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Relentless Rats gets +1/+1 for each other creature on the battlefield named Relentless Rats.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A deck can have any number of cards named Relentless Rats.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Shepherd of the Lost</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{4}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Flying, first strike, vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Stealer of Secrets</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Creature — Human Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Whenever Stealer of Secrets deals combat damage to a player, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Steward of Valeron</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Creature — Human Druid Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>{T}: Add {G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Steward of Valeron', ['{G}{W}', 'Creature — Human Druid Knight', 'Vigilance', '{T}: Add {G}.', '2/2'])</t>
         </is>
       </c>
     </row>
